--- a/Data/cleaned_data_encoded.xlsx
+++ b/Data/cleaned_data_encoded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X224"/>
+  <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,11 @@
           <t>reason_for_classification_Substantial progress toward targets</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>log_in_district_expenditures</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -630,6 +635,9 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
+      <c r="Y2" t="n">
+        <v>17.38795231929214</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -706,6 +714,9 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
+      <c r="Y3" t="n">
+        <v>18.4263124202526</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -782,6 +793,9 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
+      <c r="Y4" t="n">
+        <v>18.09159992166117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -858,6 +872,9 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
+      <c r="Y5" t="n">
+        <v>17.50354389522228</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -934,6 +951,9 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
+      <c r="Y6" t="n">
+        <v>17.29641265172436</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1010,6 +1030,9 @@
       <c r="X7" t="n">
         <v>0</v>
       </c>
+      <c r="Y7" t="n">
+        <v>18.61043715525852</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1086,6 +1109,9 @@
       <c r="X8" t="n">
         <v>0</v>
       </c>
+      <c r="Y8" t="n">
+        <v>18.54436490698985</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1162,6 +1188,9 @@
       <c r="X9" t="n">
         <v>0</v>
       </c>
+      <c r="Y9" t="n">
+        <v>17.39242991394839</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1238,6 +1267,9 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
+      <c r="Y10" t="n">
+        <v>17.66411003364752</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1314,6 +1346,9 @@
       <c r="X11" t="n">
         <v>0</v>
       </c>
+      <c r="Y11" t="n">
+        <v>17.15245378694121</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1390,6 +1425,9 @@
       <c r="X12" t="n">
         <v>0</v>
       </c>
+      <c r="Y12" t="n">
+        <v>18.41642480086093</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1466,6 +1504,9 @@
       <c r="X13" t="n">
         <v>0</v>
       </c>
+      <c r="Y13" t="n">
+        <v>17.5566286553077</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1542,6 +1583,9 @@
       <c r="X14" t="n">
         <v>0</v>
       </c>
+      <c r="Y14" t="n">
+        <v>16.44498663360911</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1618,6 +1662,9 @@
       <c r="X15" t="n">
         <v>0</v>
       </c>
+      <c r="Y15" t="n">
+        <v>17.28258869019592</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1694,6 +1741,9 @@
       <c r="X16" t="n">
         <v>0</v>
       </c>
+      <c r="Y16" t="n">
+        <v>18.43793471638124</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1770,6 +1820,9 @@
       <c r="X17" t="n">
         <v>0</v>
       </c>
+      <c r="Y17" t="n">
+        <v>17.8206101591495</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1846,6 +1899,9 @@
       <c r="X18" t="n">
         <v>1</v>
       </c>
+      <c r="Y18" t="n">
+        <v>17.41511367281518</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1922,6 +1978,9 @@
       <c r="X19" t="n">
         <v>0</v>
       </c>
+      <c r="Y19" t="n">
+        <v>17.53377464866836</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1998,6 +2057,9 @@
       <c r="X20" t="n">
         <v>0</v>
       </c>
+      <c r="Y20" t="n">
+        <v>18.13953286376</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2074,6 +2136,9 @@
       <c r="X21" t="n">
         <v>0</v>
       </c>
+      <c r="Y21" t="n">
+        <v>17.34713028078032</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2150,6 +2215,9 @@
       <c r="X22" t="n">
         <v>1</v>
       </c>
+      <c r="Y22" t="n">
+        <v>16.76240972102665</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2226,6 +2294,9 @@
       <c r="X23" t="n">
         <v>0</v>
       </c>
+      <c r="Y23" t="n">
+        <v>18.19360997796563</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2302,6 +2373,9 @@
       <c r="X24" t="n">
         <v>1</v>
       </c>
+      <c r="Y24" t="n">
+        <v>18.34689790009256</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2378,6 +2452,9 @@
       <c r="X25" t="n">
         <v>0</v>
       </c>
+      <c r="Y25" t="n">
+        <v>17.12526504887731</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2454,6 +2531,9 @@
       <c r="X26" t="n">
         <v>1</v>
       </c>
+      <c r="Y26" t="n">
+        <v>21.17275496282231</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2530,6 +2610,9 @@
       <c r="X27" t="n">
         <v>1</v>
       </c>
+      <c r="Y27" t="n">
+        <v>17.42139874406579</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2606,6 +2689,9 @@
       <c r="X28" t="n">
         <v>1</v>
       </c>
+      <c r="Y28" t="n">
+        <v>18.37332310323608</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2682,6 +2768,9 @@
       <c r="X29" t="n">
         <v>0</v>
       </c>
+      <c r="Y29" t="n">
+        <v>18.27184790229281</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2758,6 +2847,9 @@
       <c r="X30" t="n">
         <v>0</v>
       </c>
+      <c r="Y30" t="n">
+        <v>19.62159250726893</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2834,6 +2926,9 @@
       <c r="X31" t="n">
         <v>0</v>
       </c>
+      <c r="Y31" t="n">
+        <v>19.01686782579004</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2910,6 +3005,9 @@
       <c r="X32" t="n">
         <v>1</v>
       </c>
+      <c r="Y32" t="n">
+        <v>18.24746696910751</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2986,6 +3084,9 @@
       <c r="X33" t="n">
         <v>1</v>
       </c>
+      <c r="Y33" t="n">
+        <v>19.3175359109147</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3062,6 +3163,9 @@
       <c r="X34" t="n">
         <v>1</v>
       </c>
+      <c r="Y34" t="n">
+        <v>17.97592636329278</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3138,6 +3242,9 @@
       <c r="X35" t="n">
         <v>0</v>
       </c>
+      <c r="Y35" t="n">
+        <v>17.16865094662132</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3214,6 +3321,9 @@
       <c r="X36" t="n">
         <v>0</v>
       </c>
+      <c r="Y36" t="n">
+        <v>17.20464052032216</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3290,6 +3400,9 @@
       <c r="X37" t="n">
         <v>1</v>
       </c>
+      <c r="Y37" t="n">
+        <v>18.26466221745178</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3366,6 +3479,9 @@
       <c r="X38" t="n">
         <v>0</v>
       </c>
+      <c r="Y38" t="n">
+        <v>18.6353209827612</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3442,6 +3558,9 @@
       <c r="X39" t="n">
         <v>0</v>
       </c>
+      <c r="Y39" t="n">
+        <v>18.8017114534134</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3518,6 +3637,9 @@
       <c r="X40" t="n">
         <v>0</v>
       </c>
+      <c r="Y40" t="n">
+        <v>17.35331028703868</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3594,6 +3716,9 @@
       <c r="X41" t="n">
         <v>0</v>
       </c>
+      <c r="Y41" t="n">
+        <v>17.2393589958369</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3670,6 +3795,9 @@
       <c r="X42" t="n">
         <v>0</v>
       </c>
+      <c r="Y42" t="n">
+        <v>17.26956085550519</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3746,6 +3874,9 @@
       <c r="X43" t="n">
         <v>0</v>
       </c>
+      <c r="Y43" t="n">
+        <v>17.93768833575373</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3822,6 +3953,9 @@
       <c r="X44" t="n">
         <v>1</v>
       </c>
+      <c r="Y44" t="n">
+        <v>17.88371921799614</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3898,6 +4032,9 @@
       <c r="X45" t="n">
         <v>1</v>
       </c>
+      <c r="Y45" t="n">
+        <v>17.97269453490984</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3974,6 +4111,9 @@
       <c r="X46" t="n">
         <v>0</v>
       </c>
+      <c r="Y46" t="n">
+        <v>18.02529041301301</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -4050,6 +4190,9 @@
       <c r="X47" t="n">
         <v>1</v>
       </c>
+      <c r="Y47" t="n">
+        <v>17.70420482103307</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4126,6 +4269,9 @@
       <c r="X48" t="n">
         <v>1</v>
       </c>
+      <c r="Y48" t="n">
+        <v>16.83470624846931</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4202,6 +4348,9 @@
       <c r="X49" t="n">
         <v>0</v>
       </c>
+      <c r="Y49" t="n">
+        <v>17.12548175498276</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4278,6 +4427,9 @@
       <c r="X50" t="n">
         <v>0</v>
       </c>
+      <c r="Y50" t="n">
+        <v>17.77193906037128</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4354,6 +4506,9 @@
       <c r="X51" t="n">
         <v>0</v>
       </c>
+      <c r="Y51" t="n">
+        <v>17.82398206996601</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4430,6 +4585,9 @@
       <c r="X52" t="n">
         <v>0</v>
       </c>
+      <c r="Y52" t="n">
+        <v>17.80080828580426</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4506,6 +4664,9 @@
       <c r="X53" t="n">
         <v>0</v>
       </c>
+      <c r="Y53" t="n">
+        <v>17.32346145461003</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4582,6 +4743,9 @@
       <c r="X54" t="n">
         <v>1</v>
       </c>
+      <c r="Y54" t="n">
+        <v>17.64884306440583</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4658,6 +4822,9 @@
       <c r="X55" t="n">
         <v>0</v>
       </c>
+      <c r="Y55" t="n">
+        <v>16.99675322855247</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4734,6 +4901,9 @@
       <c r="X56" t="n">
         <v>1</v>
       </c>
+      <c r="Y56" t="n">
+        <v>17.84184360915055</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4810,6 +4980,9 @@
       <c r="X57" t="n">
         <v>0</v>
       </c>
+      <c r="Y57" t="n">
+        <v>18.7181534983755</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -4886,6 +5059,9 @@
       <c r="X58" t="n">
         <v>0</v>
       </c>
+      <c r="Y58" t="n">
+        <v>17.19862335756499</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4962,6 +5138,9 @@
       <c r="X59" t="n">
         <v>0</v>
       </c>
+      <c r="Y59" t="n">
+        <v>19.2337680763642</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -5038,6 +5217,9 @@
       <c r="X60" t="n">
         <v>0</v>
       </c>
+      <c r="Y60" t="n">
+        <v>18.09798846218072</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -5114,6 +5296,9 @@
       <c r="X61" t="n">
         <v>1</v>
       </c>
+      <c r="Y61" t="n">
+        <v>18.39384519524364</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -5190,6 +5375,9 @@
       <c r="X62" t="n">
         <v>0</v>
       </c>
+      <c r="Y62" t="n">
+        <v>17.74265805939352</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5266,6 +5454,9 @@
       <c r="X63" t="n">
         <v>0</v>
       </c>
+      <c r="Y63" t="n">
+        <v>19.17827370697479</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -5342,6 +5533,9 @@
       <c r="X64" t="n">
         <v>1</v>
       </c>
+      <c r="Y64" t="n">
+        <v>18.23278993671293</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -5418,6 +5612,9 @@
       <c r="X65" t="n">
         <v>1</v>
       </c>
+      <c r="Y65" t="n">
+        <v>17.58155066037484</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -5494,6 +5691,9 @@
       <c r="X66" t="n">
         <v>0</v>
       </c>
+      <c r="Y66" t="n">
+        <v>16.36148345831089</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5570,6 +5770,9 @@
       <c r="X67" t="n">
         <v>0</v>
       </c>
+      <c r="Y67" t="n">
+        <v>17.47579401001579</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -5646,6 +5849,9 @@
       <c r="X68" t="n">
         <v>0</v>
       </c>
+      <c r="Y68" t="n">
+        <v>16.7245057023738</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -5722,6 +5928,9 @@
       <c r="X69" t="n">
         <v>0</v>
       </c>
+      <c r="Y69" t="n">
+        <v>16.93098321653816</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -5798,6 +6007,9 @@
       <c r="X70" t="n">
         <v>0</v>
       </c>
+      <c r="Y70" t="n">
+        <v>16.90620064925037</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -5874,6 +6086,9 @@
       <c r="X71" t="n">
         <v>0</v>
       </c>
+      <c r="Y71" t="n">
+        <v>17.92007736060344</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -5950,6 +6165,9 @@
       <c r="X72" t="n">
         <v>0</v>
       </c>
+      <c r="Y72" t="n">
+        <v>17.69834140852751</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -6026,6 +6244,9 @@
       <c r="X73" t="n">
         <v>1</v>
       </c>
+      <c r="Y73" t="n">
+        <v>16.39260595504195</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -6102,6 +6323,9 @@
       <c r="X74" t="n">
         <v>0</v>
       </c>
+      <c r="Y74" t="n">
+        <v>17.26502154994465</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -6178,6 +6402,9 @@
       <c r="X75" t="n">
         <v>1</v>
       </c>
+      <c r="Y75" t="n">
+        <v>17.65920998930456</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -6254,6 +6481,9 @@
       <c r="X76" t="n">
         <v>0</v>
       </c>
+      <c r="Y76" t="n">
+        <v>16.15461196436309</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -6330,6 +6560,9 @@
       <c r="X77" t="n">
         <v>1</v>
       </c>
+      <c r="Y77" t="n">
+        <v>17.40537645733839</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -6406,6 +6639,9 @@
       <c r="X78" t="n">
         <v>1</v>
       </c>
+      <c r="Y78" t="n">
+        <v>17.77474509169549</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -6482,6 +6718,9 @@
       <c r="X79" t="n">
         <v>1</v>
       </c>
+      <c r="Y79" t="n">
+        <v>16.47491061689351</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -6558,6 +6797,9 @@
       <c r="X80" t="n">
         <v>1</v>
       </c>
+      <c r="Y80" t="n">
+        <v>17.61328312005298</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -6634,6 +6876,9 @@
       <c r="X81" t="n">
         <v>0</v>
       </c>
+      <c r="Y81" t="n">
+        <v>16.94708191605987</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -6710,6 +6955,9 @@
       <c r="X82" t="n">
         <v>1</v>
       </c>
+      <c r="Y82" t="n">
+        <v>18.82326541692082</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -6786,6 +7034,9 @@
       <c r="X83" t="n">
         <v>0</v>
       </c>
+      <c r="Y83" t="n">
+        <v>18.1348893515714</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -6862,6 +7113,9 @@
       <c r="X84" t="n">
         <v>0</v>
       </c>
+      <c r="Y84" t="n">
+        <v>16.91311958185641</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -6938,6 +7192,9 @@
       <c r="X85" t="n">
         <v>1</v>
       </c>
+      <c r="Y85" t="n">
+        <v>17.61277114918715</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -7014,6 +7271,9 @@
       <c r="X86" t="n">
         <v>0</v>
       </c>
+      <c r="Y86" t="n">
+        <v>18.63139443078105</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -7090,6 +7350,9 @@
       <c r="X87" t="n">
         <v>0</v>
       </c>
+      <c r="Y87" t="n">
+        <v>16.84144827464252</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -7166,6 +7429,9 @@
       <c r="X88" t="n">
         <v>1</v>
       </c>
+      <c r="Y88" t="n">
+        <v>16.80052194261148</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -7242,6 +7508,9 @@
       <c r="X89" t="n">
         <v>0</v>
       </c>
+      <c r="Y89" t="n">
+        <v>18.05611339101455</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -7318,6 +7587,9 @@
       <c r="X90" t="n">
         <v>0</v>
       </c>
+      <c r="Y90" t="n">
+        <v>17.7486698539055</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -7394,6 +7666,9 @@
       <c r="X91" t="n">
         <v>1</v>
       </c>
+      <c r="Y91" t="n">
+        <v>16.91359339997651</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -7470,6 +7745,9 @@
       <c r="X92" t="n">
         <v>1</v>
       </c>
+      <c r="Y92" t="n">
+        <v>17.4024300967084</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -7546,6 +7824,9 @@
       <c r="X93" t="n">
         <v>0</v>
       </c>
+      <c r="Y93" t="n">
+        <v>17.43777819247531</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -7622,6 +7903,9 @@
       <c r="X94" t="n">
         <v>0</v>
       </c>
+      <c r="Y94" t="n">
+        <v>19.43699286733358</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -7698,6 +7982,9 @@
       <c r="X95" t="n">
         <v>1</v>
       </c>
+      <c r="Y95" t="n">
+        <v>16.52607040726336</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -7774,6 +8061,9 @@
       <c r="X96" t="n">
         <v>0</v>
       </c>
+      <c r="Y96" t="n">
+        <v>16.93821172547508</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -7850,6 +8140,9 @@
       <c r="X97" t="n">
         <v>1</v>
       </c>
+      <c r="Y97" t="n">
+        <v>16.69608619965447</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -7926,6 +8219,9 @@
       <c r="X98" t="n">
         <v>1</v>
       </c>
+      <c r="Y98" t="n">
+        <v>18.44149061282999</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -8002,6 +8298,9 @@
       <c r="X99" t="n">
         <v>0</v>
       </c>
+      <c r="Y99" t="n">
+        <v>18.91381638759076</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -8078,6 +8377,9 @@
       <c r="X100" t="n">
         <v>0</v>
       </c>
+      <c r="Y100" t="n">
+        <v>17.33324258154871</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -8154,6 +8456,9 @@
       <c r="X101" t="n">
         <v>0</v>
       </c>
+      <c r="Y101" t="n">
+        <v>17.1813723878501</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -8230,6 +8535,9 @@
       <c r="X102" t="n">
         <v>0</v>
       </c>
+      <c r="Y102" t="n">
+        <v>17.6847458103259</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -8306,6 +8614,9 @@
       <c r="X103" t="n">
         <v>0</v>
       </c>
+      <c r="Y103" t="n">
+        <v>19.5007614873172</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -8382,6 +8693,9 @@
       <c r="X104" t="n">
         <v>0</v>
       </c>
+      <c r="Y104" t="n">
+        <v>17.6477667936945</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -8458,6 +8772,9 @@
       <c r="X105" t="n">
         <v>1</v>
       </c>
+      <c r="Y105" t="n">
+        <v>17.13736928171835</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -8534,6 +8851,9 @@
       <c r="X106" t="n">
         <v>0</v>
       </c>
+      <c r="Y106" t="n">
+        <v>19.63611045852208</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -8610,6 +8930,9 @@
       <c r="X107" t="n">
         <v>1</v>
       </c>
+      <c r="Y107" t="n">
+        <v>17.52586364198137</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -8686,6 +9009,9 @@
       <c r="X108" t="n">
         <v>0</v>
       </c>
+      <c r="Y108" t="n">
+        <v>18.57368186900894</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -8762,6 +9088,9 @@
       <c r="X109" t="n">
         <v>1</v>
       </c>
+      <c r="Y109" t="n">
+        <v>17.16130156653692</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -8838,6 +9167,9 @@
       <c r="X110" t="n">
         <v>1</v>
       </c>
+      <c r="Y110" t="n">
+        <v>18.06496105732434</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -8914,6 +9246,9 @@
       <c r="X111" t="n">
         <v>0</v>
       </c>
+      <c r="Y111" t="n">
+        <v>17.81294863863676</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -8990,6 +9325,9 @@
       <c r="X112" t="n">
         <v>0</v>
       </c>
+      <c r="Y112" t="n">
+        <v>18.2936892774864</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -9066,6 +9404,9 @@
       <c r="X113" t="n">
         <v>1</v>
       </c>
+      <c r="Y113" t="n">
+        <v>18.01774824752411</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -9142,6 +9483,9 @@
       <c r="X114" t="n">
         <v>0</v>
       </c>
+      <c r="Y114" t="n">
+        <v>17.07814746519951</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -9218,6 +9562,9 @@
       <c r="X115" t="n">
         <v>1</v>
       </c>
+      <c r="Y115" t="n">
+        <v>17.40957192367705</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -9294,6 +9641,9 @@
       <c r="X116" t="n">
         <v>0</v>
       </c>
+      <c r="Y116" t="n">
+        <v>17.40469179364883</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -9370,6 +9720,9 @@
       <c r="X117" t="n">
         <v>1</v>
       </c>
+      <c r="Y117" t="n">
+        <v>17.16095144593118</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -9446,6 +9799,9 @@
       <c r="X118" t="n">
         <v>0</v>
       </c>
+      <c r="Y118" t="n">
+        <v>17.68378138737202</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -9522,6 +9878,9 @@
       <c r="X119" t="n">
         <v>0</v>
       </c>
+      <c r="Y119" t="n">
+        <v>18.34626704199113</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -9598,6 +9957,9 @@
       <c r="X120" t="n">
         <v>0</v>
       </c>
+      <c r="Y120" t="n">
+        <v>17.4929573533272</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -9674,6 +10036,9 @@
       <c r="X121" t="n">
         <v>1</v>
       </c>
+      <c r="Y121" t="n">
+        <v>17.89298887164726</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -9750,6 +10115,9 @@
       <c r="X122" t="n">
         <v>1</v>
       </c>
+      <c r="Y122" t="n">
+        <v>17.49994442257215</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -9826,6 +10194,9 @@
       <c r="X123" t="n">
         <v>0</v>
       </c>
+      <c r="Y123" t="n">
+        <v>18.50365735521093</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -9902,6 +10273,9 @@
       <c r="X124" t="n">
         <v>0</v>
       </c>
+      <c r="Y124" t="n">
+        <v>17.85367571625392</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -9978,6 +10352,9 @@
       <c r="X125" t="n">
         <v>1</v>
       </c>
+      <c r="Y125" t="n">
+        <v>18.22142294114269</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -10054,6 +10431,9 @@
       <c r="X126" t="n">
         <v>0</v>
       </c>
+      <c r="Y126" t="n">
+        <v>17.26062013056771</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -10130,6 +10510,9 @@
       <c r="X127" t="n">
         <v>1</v>
       </c>
+      <c r="Y127" t="n">
+        <v>16.98093963964807</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -10206,6 +10589,9 @@
       <c r="X128" t="n">
         <v>0</v>
       </c>
+      <c r="Y128" t="n">
+        <v>18.15408330008053</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -10282,6 +10668,9 @@
       <c r="X129" t="n">
         <v>0</v>
       </c>
+      <c r="Y129" t="n">
+        <v>16.86386600981807</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -10358,6 +10747,9 @@
       <c r="X130" t="n">
         <v>1</v>
       </c>
+      <c r="Y130" t="n">
+        <v>17.54688169046024</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -10434,6 +10826,9 @@
       <c r="X131" t="n">
         <v>0</v>
       </c>
+      <c r="Y131" t="n">
+        <v>16.66552167323436</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -10510,6 +10905,9 @@
       <c r="X132" t="n">
         <v>0</v>
       </c>
+      <c r="Y132" t="n">
+        <v>17.04138038766095</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -10586,6 +10984,9 @@
       <c r="X133" t="n">
         <v>0</v>
       </c>
+      <c r="Y133" t="n">
+        <v>17.63497035620174</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -10662,6 +11063,9 @@
       <c r="X134" t="n">
         <v>1</v>
       </c>
+      <c r="Y134" t="n">
+        <v>16.93850229037178</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -10738,6 +11142,9 @@
       <c r="X135" t="n">
         <v>1</v>
       </c>
+      <c r="Y135" t="n">
+        <v>17.94796445332536</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -10814,6 +11221,9 @@
       <c r="X136" t="n">
         <v>0</v>
       </c>
+      <c r="Y136" t="n">
+        <v>18.44924748921953</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -10890,6 +11300,9 @@
       <c r="X137" t="n">
         <v>0</v>
       </c>
+      <c r="Y137" t="n">
+        <v>17.34750681315212</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -10966,6 +11379,9 @@
       <c r="X138" t="n">
         <v>0</v>
       </c>
+      <c r="Y138" t="n">
+        <v>18.63496381287277</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -11042,6 +11458,9 @@
       <c r="X139" t="n">
         <v>0</v>
       </c>
+      <c r="Y139" t="n">
+        <v>19.40197397780833</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -11118,6 +11537,9 @@
       <c r="X140" t="n">
         <v>1</v>
       </c>
+      <c r="Y140" t="n">
+        <v>17.65966404399489</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -11194,6 +11616,9 @@
       <c r="X141" t="n">
         <v>0</v>
       </c>
+      <c r="Y141" t="n">
+        <v>19.48667623116176</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -11270,6 +11695,9 @@
       <c r="X142" t="n">
         <v>0</v>
       </c>
+      <c r="Y142" t="n">
+        <v>17.20234030504345</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -11346,6 +11774,9 @@
       <c r="X143" t="n">
         <v>1</v>
       </c>
+      <c r="Y143" t="n">
+        <v>18.16299528701412</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -11422,6 +11853,9 @@
       <c r="X144" t="n">
         <v>0</v>
       </c>
+      <c r="Y144" t="n">
+        <v>17.98207018766401</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -11498,6 +11932,9 @@
       <c r="X145" t="n">
         <v>0</v>
       </c>
+      <c r="Y145" t="n">
+        <v>15.98591995496171</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -11574,6 +12011,9 @@
       <c r="X146" t="n">
         <v>0</v>
       </c>
+      <c r="Y146" t="n">
+        <v>17.80638574463975</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -11650,6 +12090,9 @@
       <c r="X147" t="n">
         <v>0</v>
       </c>
+      <c r="Y147" t="n">
+        <v>17.65264651266655</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -11726,6 +12169,9 @@
       <c r="X148" t="n">
         <v>0</v>
       </c>
+      <c r="Y148" t="n">
+        <v>17.75532269486469</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -11802,6 +12248,9 @@
       <c r="X149" t="n">
         <v>0</v>
       </c>
+      <c r="Y149" t="n">
+        <v>17.13552536032378</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -11878,6 +12327,9 @@
       <c r="X150" t="n">
         <v>0</v>
       </c>
+      <c r="Y150" t="n">
+        <v>17.30653196432807</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -11954,6 +12406,9 @@
       <c r="X151" t="n">
         <v>0</v>
       </c>
+      <c r="Y151" t="n">
+        <v>17.59376033764291</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -12030,6 +12485,9 @@
       <c r="X152" t="n">
         <v>1</v>
       </c>
+      <c r="Y152" t="n">
+        <v>17.5006818874742</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -12106,6 +12564,9 @@
       <c r="X153" t="n">
         <v>0</v>
       </c>
+      <c r="Y153" t="n">
+        <v>18.08249170647155</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -12182,6 +12643,9 @@
       <c r="X154" t="n">
         <v>0</v>
       </c>
+      <c r="Y154" t="n">
+        <v>16.92304249131847</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -12258,6 +12722,9 @@
       <c r="X155" t="n">
         <v>0</v>
       </c>
+      <c r="Y155" t="n">
+        <v>17.09460195648247</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -12334,6 +12801,9 @@
       <c r="X156" t="n">
         <v>1</v>
       </c>
+      <c r="Y156" t="n">
+        <v>16.97970958009405</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -12410,6 +12880,9 @@
       <c r="X157" t="n">
         <v>0</v>
       </c>
+      <c r="Y157" t="n">
+        <v>18.44596010144744</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -12486,6 +12959,9 @@
       <c r="X158" t="n">
         <v>1</v>
       </c>
+      <c r="Y158" t="n">
+        <v>17.61407138011896</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -12562,6 +13038,9 @@
       <c r="X159" t="n">
         <v>1</v>
       </c>
+      <c r="Y159" t="n">
+        <v>17.50655494192553</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -12638,6 +13117,9 @@
       <c r="X160" t="n">
         <v>1</v>
       </c>
+      <c r="Y160" t="n">
+        <v>16.52034198436475</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -12714,6 +13196,9 @@
       <c r="X161" t="n">
         <v>0</v>
       </c>
+      <c r="Y161" t="n">
+        <v>18.55293021651836</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -12790,6 +13275,9 @@
       <c r="X162" t="n">
         <v>1</v>
       </c>
+      <c r="Y162" t="n">
+        <v>18.83841870291683</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -12866,6 +13354,9 @@
       <c r="X163" t="n">
         <v>0</v>
       </c>
+      <c r="Y163" t="n">
+        <v>17.52944833315494</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -12942,6 +13433,9 @@
       <c r="X164" t="n">
         <v>0</v>
       </c>
+      <c r="Y164" t="n">
+        <v>16.86615185768714</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -13018,6 +13512,9 @@
       <c r="X165" t="n">
         <v>1</v>
       </c>
+      <c r="Y165" t="n">
+        <v>19.03846572021511</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -13094,6 +13591,9 @@
       <c r="X166" t="n">
         <v>0</v>
       </c>
+      <c r="Y166" t="n">
+        <v>16.45321955040995</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -13170,6 +13670,9 @@
       <c r="X167" t="n">
         <v>0</v>
       </c>
+      <c r="Y167" t="n">
+        <v>18.0438341411937</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -13246,6 +13749,9 @@
       <c r="X168" t="n">
         <v>1</v>
       </c>
+      <c r="Y168" t="n">
+        <v>18.05275101717136</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -13322,6 +13828,9 @@
       <c r="X169" t="n">
         <v>0</v>
       </c>
+      <c r="Y169" t="n">
+        <v>18.71915272070697</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -13398,6 +13907,9 @@
       <c r="X170" t="n">
         <v>0</v>
       </c>
+      <c r="Y170" t="n">
+        <v>17.5867920352998</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -13474,6 +13986,9 @@
       <c r="X171" t="n">
         <v>1</v>
       </c>
+      <c r="Y171" t="n">
+        <v>16.74836000562721</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -13550,6 +14065,9 @@
       <c r="X172" t="n">
         <v>0</v>
       </c>
+      <c r="Y172" t="n">
+        <v>18.34190543665423</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -13626,6 +14144,9 @@
       <c r="X173" t="n">
         <v>1</v>
       </c>
+      <c r="Y173" t="n">
+        <v>17.77905555462685</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -13702,6 +14223,9 @@
       <c r="X174" t="n">
         <v>0</v>
       </c>
+      <c r="Y174" t="n">
+        <v>17.63420562417046</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -13778,6 +14302,9 @@
       <c r="X175" t="n">
         <v>1</v>
       </c>
+      <c r="Y175" t="n">
+        <v>17.79446290187219</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -13854,6 +14381,9 @@
       <c r="X176" t="n">
         <v>1</v>
       </c>
+      <c r="Y176" t="n">
+        <v>17.43861013063832</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -13930,6 +14460,9 @@
       <c r="X177" t="n">
         <v>0</v>
       </c>
+      <c r="Y177" t="n">
+        <v>18.05663130298599</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -14006,6 +14539,9 @@
       <c r="X178" t="n">
         <v>1</v>
       </c>
+      <c r="Y178" t="n">
+        <v>18.42946570097165</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -14082,6 +14618,9 @@
       <c r="X179" t="n">
         <v>1</v>
       </c>
+      <c r="Y179" t="n">
+        <v>17.39166549862263</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -14158,6 +14697,9 @@
       <c r="X180" t="n">
         <v>0</v>
       </c>
+      <c r="Y180" t="n">
+        <v>16.67423314119537</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -14234,6 +14776,9 @@
       <c r="X181" t="n">
         <v>0</v>
       </c>
+      <c r="Y181" t="n">
+        <v>18.66791093150987</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -14310,6 +14855,9 @@
       <c r="X182" t="n">
         <v>1</v>
       </c>
+      <c r="Y182" t="n">
+        <v>17.24562349166122</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -14386,6 +14934,9 @@
       <c r="X183" t="n">
         <v>0</v>
       </c>
+      <c r="Y183" t="n">
+        <v>17.59684065229348</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -14462,6 +15013,9 @@
       <c r="X184" t="n">
         <v>1</v>
       </c>
+      <c r="Y184" t="n">
+        <v>16.80292779068423</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -14538,6 +15092,9 @@
       <c r="X185" t="n">
         <v>0</v>
       </c>
+      <c r="Y185" t="n">
+        <v>17.03719214260465</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -14614,6 +15171,9 @@
       <c r="X186" t="n">
         <v>1</v>
       </c>
+      <c r="Y186" t="n">
+        <v>20.21740735464922</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -14690,6 +15250,9 @@
       <c r="X187" t="n">
         <v>1</v>
       </c>
+      <c r="Y187" t="n">
+        <v>17.63242935289496</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -14766,6 +15329,9 @@
       <c r="X188" t="n">
         <v>0</v>
       </c>
+      <c r="Y188" t="n">
+        <v>18.02820729799878</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -14842,6 +15408,9 @@
       <c r="X189" t="n">
         <v>1</v>
       </c>
+      <c r="Y189" t="n">
+        <v>16.96514341535984</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -14918,6 +15487,9 @@
       <c r="X190" t="n">
         <v>0</v>
       </c>
+      <c r="Y190" t="n">
+        <v>17.51223421571058</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -14994,6 +15566,9 @@
       <c r="X191" t="n">
         <v>1</v>
       </c>
+      <c r="Y191" t="n">
+        <v>17.31380174328214</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -15070,6 +15645,9 @@
       <c r="X192" t="n">
         <v>1</v>
       </c>
+      <c r="Y192" t="n">
+        <v>17.22592192683789</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -15146,6 +15724,9 @@
       <c r="X193" t="n">
         <v>0</v>
       </c>
+      <c r="Y193" t="n">
+        <v>18.70972914729882</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -15222,6 +15803,9 @@
       <c r="X194" t="n">
         <v>1</v>
       </c>
+      <c r="Y194" t="n">
+        <v>17.98446509618413</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -15298,6 +15882,9 @@
       <c r="X195" t="n">
         <v>1</v>
       </c>
+      <c r="Y195" t="n">
+        <v>17.72831375896069</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -15374,6 +15961,9 @@
       <c r="X196" t="n">
         <v>1</v>
       </c>
+      <c r="Y196" t="n">
+        <v>17.16530404263141</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -15450,6 +16040,9 @@
       <c r="X197" t="n">
         <v>0</v>
       </c>
+      <c r="Y197" t="n">
+        <v>17.28033374874408</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -15526,6 +16119,9 @@
       <c r="X198" t="n">
         <v>1</v>
       </c>
+      <c r="Y198" t="n">
+        <v>18.50430937389921</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -15602,6 +16198,9 @@
       <c r="X199" t="n">
         <v>0</v>
       </c>
+      <c r="Y199" t="n">
+        <v>18.00711910144062</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -15678,6 +16277,9 @@
       <c r="X200" t="n">
         <v>1</v>
       </c>
+      <c r="Y200" t="n">
+        <v>18.06474343517963</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -15754,6 +16356,9 @@
       <c r="X201" t="n">
         <v>0</v>
       </c>
+      <c r="Y201" t="n">
+        <v>18.75169210423585</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -15830,6 +16435,9 @@
       <c r="X202" t="n">
         <v>0</v>
       </c>
+      <c r="Y202" t="n">
+        <v>16.9221144292278</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -15906,6 +16514,9 @@
       <c r="X203" t="n">
         <v>1</v>
       </c>
+      <c r="Y203" t="n">
+        <v>17.63870094749903</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -15982,6 +16593,9 @@
       <c r="X204" t="n">
         <v>1</v>
       </c>
+      <c r="Y204" t="n">
+        <v>18.01948548704133</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -16058,6 +16672,9 @@
       <c r="X205" t="n">
         <v>0</v>
       </c>
+      <c r="Y205" t="n">
+        <v>17.90877959718548</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -16134,6 +16751,9 @@
       <c r="X206" t="n">
         <v>1</v>
       </c>
+      <c r="Y206" t="n">
+        <v>17.33809877046719</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -16210,6 +16830,9 @@
       <c r="X207" t="n">
         <v>0</v>
       </c>
+      <c r="Y207" t="n">
+        <v>18.50798254118262</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -16286,6 +16909,9 @@
       <c r="X208" t="n">
         <v>1</v>
       </c>
+      <c r="Y208" t="n">
+        <v>16.65386246812323</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -16362,6 +16988,9 @@
       <c r="X209" t="n">
         <v>0</v>
       </c>
+      <c r="Y209" t="n">
+        <v>16.85683812275003</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -16438,6 +17067,9 @@
       <c r="X210" t="n">
         <v>1</v>
       </c>
+      <c r="Y210" t="n">
+        <v>18.04930434077062</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -16514,6 +17146,9 @@
       <c r="X211" t="n">
         <v>0</v>
       </c>
+      <c r="Y211" t="n">
+        <v>18.13958061755813</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -16590,6 +17225,9 @@
       <c r="X212" t="n">
         <v>1</v>
       </c>
+      <c r="Y212" t="n">
+        <v>18.28636473502553</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -16666,6 +17304,9 @@
       <c r="X213" t="n">
         <v>0</v>
       </c>
+      <c r="Y213" t="n">
+        <v>18.18352512427358</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -16742,6 +17383,9 @@
       <c r="X214" t="n">
         <v>0</v>
       </c>
+      <c r="Y214" t="n">
+        <v>17.90411408141506</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -16818,6 +17462,9 @@
       <c r="X215" t="n">
         <v>0</v>
       </c>
+      <c r="Y215" t="n">
+        <v>17.13055884530967</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -16894,6 +17541,9 @@
       <c r="X216" t="n">
         <v>0</v>
       </c>
+      <c r="Y216" t="n">
+        <v>18.02923664054804</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -16970,6 +17620,9 @@
       <c r="X217" t="n">
         <v>0</v>
       </c>
+      <c r="Y217" t="n">
+        <v>18.42899905070909</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -17046,6 +17699,9 @@
       <c r="X218" t="n">
         <v>1</v>
       </c>
+      <c r="Y218" t="n">
+        <v>17.91684102847424</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -17122,6 +17778,9 @@
       <c r="X219" t="n">
         <v>1</v>
       </c>
+      <c r="Y219" t="n">
+        <v>17.96445391504111</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -17198,6 +17857,9 @@
       <c r="X220" t="n">
         <v>1</v>
       </c>
+      <c r="Y220" t="n">
+        <v>16.93193021613376</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -17274,6 +17936,9 @@
       <c r="X221" t="n">
         <v>0</v>
       </c>
+      <c r="Y221" t="n">
+        <v>18.16573960861256</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -17350,6 +18015,9 @@
       <c r="X222" t="n">
         <v>1</v>
       </c>
+      <c r="Y222" t="n">
+        <v>17.31444472012511</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -17426,6 +18094,9 @@
       <c r="X223" t="n">
         <v>0</v>
       </c>
+      <c r="Y223" t="n">
+        <v>18.35980038469415</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -17501,6 +18172,9 @@
       </c>
       <c r="X224" t="n">
         <v>0</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>20.03239741284768</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cleaned_data_encoded.xlsx
+++ b/Data/cleaned_data_encoded.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
